--- a/Manuscript/TableS8_Gene_type_enrichment_LOND.xlsx
+++ b/Manuscript/TableS8_Gene_type_enrichment_LOND.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruin\Documents\GitHub\MRPC_support\Manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F731AA7-6459-49F7-83AD-0469DC68F054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7B15BE-6805-4A55-894C-FC050BA00AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5412" yWindow="1800" windowWidth="16104" windowHeight="10560" activeTab="2" xr2:uid="{87C39FA6-D5B3-48D3-9926-A890F1182C67}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="16104" windowHeight="10560" activeTab="2" xr2:uid="{87C39FA6-D5B3-48D3-9926-A890F1182C67}"/>
   </bookViews>
   <sheets>
     <sheet name="Pseudogene" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -162,10 +162,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +483,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G14"/>
+      <selection activeCell="D9" sqref="D9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,15 +508,15 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
@@ -542,22 +542,22 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>817</v>
-      </c>
-      <c r="C4" s="4">
+        <v>794</v>
+      </c>
+      <c r="C4" s="3">
         <f>B4/B6</f>
-        <v>0.81293532338308461</v>
+        <v>0.82194616977225676</v>
       </c>
       <c r="D4">
-        <v>1312</v>
-      </c>
-      <c r="E4" s="4">
+        <v>1291</v>
+      </c>
+      <c r="E4" s="3">
         <f>D4/D6</f>
-        <v>0.69125395152792413</v>
+        <v>0.69334049409237375</v>
       </c>
       <c r="F4" s="2">
         <f>B4+D4</f>
-        <v>2129</v>
+        <v>2085</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -566,22 +566,22 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>188</v>
-      </c>
-      <c r="C5" s="4">
+        <v>172</v>
+      </c>
+      <c r="C5" s="3">
         <f>B5/B6</f>
-        <v>0.18706467661691542</v>
+        <v>0.17805383022774326</v>
       </c>
       <c r="D5">
-        <v>586</v>
-      </c>
-      <c r="E5" s="4">
+        <v>571</v>
+      </c>
+      <c r="E5" s="3">
         <f>D5/D6</f>
-        <v>0.30874604847207587</v>
+        <v>0.3066595059076262</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ref="F5:F6" si="0">B5+D5</f>
-        <v>774</v>
+        <v>743</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -590,35 +590,35 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1005</v>
-      </c>
-      <c r="C6" s="4">
+        <v>966</v>
+      </c>
+      <c r="C6" s="3">
         <f>B6/F6</f>
-        <v>0.34619359283499829</v>
+        <v>0.34158415841584161</v>
       </c>
       <c r="D6">
-        <v>1898</v>
-      </c>
-      <c r="E6" s="4">
+        <v>1862</v>
+      </c>
+      <c r="E6" s="3">
         <f>D6/F6</f>
-        <v>0.65380640716500171</v>
+        <v>0.65841584158415845</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>2903</v>
+        <v>2828</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -644,22 +644,22 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>1312</v>
-      </c>
-      <c r="C9" s="4">
+        <v>1291</v>
+      </c>
+      <c r="C9" s="3">
         <f>B9/F9</f>
-        <v>0.69125395152792413</v>
+        <v>0.69334049409237375</v>
       </c>
       <c r="D9">
-        <v>586</v>
-      </c>
-      <c r="E9" s="4">
+        <v>571</v>
+      </c>
+      <c r="E9" s="3">
         <f>D9/F9</f>
-        <v>0.30874604847207587</v>
+        <v>0.3066595059076262</v>
       </c>
       <c r="F9" s="2">
         <f>B9+D9</f>
-        <v>1898</v>
+        <v>1862</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -667,17 +667,17 @@
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>57360</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <f>B10/F10</f>
         <v>0.75163141756427387</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>18954</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <f>D10/F10</f>
         <v>0.24836858243572607</v>
       </c>
@@ -688,15 +688,15 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
@@ -722,22 +722,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>817</v>
-      </c>
-      <c r="C13" s="4">
+        <v>794</v>
+      </c>
+      <c r="C13" s="3">
         <f>B13/F13</f>
-        <v>0.81293532338308461</v>
+        <v>0.82194616977225676</v>
       </c>
       <c r="D13">
-        <v>188</v>
-      </c>
-      <c r="E13" s="4">
+        <v>172</v>
+      </c>
+      <c r="E13" s="3">
         <f>D13/F13</f>
-        <v>0.18706467661691542</v>
+        <v>0.17805383022774326</v>
       </c>
       <c r="F13" s="2">
         <f>B13+D13</f>
-        <v>1005</v>
+        <v>966</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -745,17 +745,17 @@
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14">
         <v>57360</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f>B14/F14</f>
         <v>0.75163141756427387</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>18954</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <f>D14/F14</f>
         <v>0.24836858243572607</v>
       </c>
@@ -790,7 +790,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G13"/>
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -803,15 +803,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -837,22 +837,22 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>264</v>
-      </c>
-      <c r="C3" s="4">
+        <v>259</v>
+      </c>
+      <c r="C3" s="3">
         <f>B3/B5</f>
-        <v>0.2626865671641791</v>
+        <v>0.26811594202898553</v>
       </c>
       <c r="D3">
-        <v>374</v>
-      </c>
-      <c r="E3" s="4">
+        <v>366</v>
+      </c>
+      <c r="E3" s="3">
         <f>D3/D5</f>
-        <v>0.19704952581664911</v>
+        <v>0.19656283566058003</v>
       </c>
       <c r="F3" s="2">
         <f>B3+D3</f>
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -861,22 +861,22 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>741</v>
-      </c>
-      <c r="C4" s="4">
+        <v>707</v>
+      </c>
+      <c r="C4" s="3">
         <f>B4/B5</f>
-        <v>0.73731343283582085</v>
+        <v>0.73188405797101452</v>
       </c>
       <c r="D4">
-        <v>1524</v>
-      </c>
-      <c r="E4" s="4">
+        <v>1496</v>
+      </c>
+      <c r="E4" s="3">
         <f>D4/D5</f>
-        <v>0.80295047418335086</v>
+        <v>0.80343716433942003</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ref="F4:F5" si="0">B4+D4</f>
-        <v>2265</v>
+        <v>2203</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -885,35 +885,35 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1005</v>
-      </c>
-      <c r="C5" s="4">
+        <v>966</v>
+      </c>
+      <c r="C5" s="3">
         <f>B5/F5</f>
-        <v>0.34619359283499829</v>
+        <v>0.34158415841584161</v>
       </c>
       <c r="D5">
-        <v>1898</v>
-      </c>
-      <c r="E5" s="4">
+        <v>1862</v>
+      </c>
+      <c r="E5" s="3">
         <f>D5/F5</f>
-        <v>0.65380640716500171</v>
+        <v>0.65841584158415845</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>2903</v>
+        <v>2828</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -939,22 +939,22 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>374</v>
-      </c>
-      <c r="C8" s="4">
+        <v>366</v>
+      </c>
+      <c r="C8" s="3">
         <f>B8/F8</f>
-        <v>0.19704952581664911</v>
+        <v>0.19656283566058003</v>
       </c>
       <c r="D8">
-        <v>1524</v>
-      </c>
-      <c r="E8" s="4">
+        <v>1496</v>
+      </c>
+      <c r="E8" s="3">
         <f>D8/F8</f>
-        <v>0.80295047418335086</v>
+        <v>0.80343716433942003</v>
       </c>
       <c r="F8" s="2">
         <f>B8+D8</f>
-        <v>1898</v>
+        <v>1862</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -965,14 +965,14 @@
       <c r="B9">
         <v>18843</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <f>B9/F9</f>
         <v>0.24691406557119269</v>
       </c>
       <c r="D9">
         <v>57471</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <f>D9/F9</f>
         <v>0.75308593442880734</v>
       </c>
@@ -983,15 +983,15 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
@@ -1017,22 +1017,22 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>264</v>
-      </c>
-      <c r="C12" s="4">
+        <v>259</v>
+      </c>
+      <c r="C12" s="3">
         <f>B12/F12</f>
-        <v>0.2626865671641791</v>
+        <v>0.26811594202898553</v>
       </c>
       <c r="D12">
-        <v>741</v>
-      </c>
-      <c r="E12" s="4">
+        <v>707</v>
+      </c>
+      <c r="E12" s="3">
         <f>D12/F12</f>
-        <v>0.73731343283582085</v>
+        <v>0.73188405797101452</v>
       </c>
       <c r="F12" s="2">
         <f>B12+D12</f>
-        <v>1005</v>
+        <v>966</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1043,14 +1043,14 @@
       <c r="B13">
         <v>18843</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f>B13/F13</f>
         <v>0.24691406557119269</v>
       </c>
       <c r="D13">
         <v>57471</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f>D13/F13</f>
         <v>0.75308593442880734</v>
       </c>
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1088,15 +1088,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
@@ -1122,22 +1122,22 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>482</v>
-      </c>
-      <c r="C3" s="4">
+        <v>459</v>
+      </c>
+      <c r="C3" s="3">
         <f>B3/B5</f>
-        <v>0.47960199004975124</v>
+        <v>0.4751552795031056</v>
       </c>
       <c r="D3">
-        <v>1385</v>
-      </c>
-      <c r="E3" s="4">
+        <v>1360</v>
+      </c>
+      <c r="E3" s="3">
         <f>D3/D5</f>
-        <v>0.72971548998946256</v>
+        <v>0.73039742212674541</v>
       </c>
       <c r="F3" s="2">
         <f>B3+D3</f>
-        <v>1867</v>
+        <v>1819</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -1146,22 +1146,22 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>523</v>
-      </c>
-      <c r="C4" s="4">
+        <v>507</v>
+      </c>
+      <c r="C4" s="3">
         <f>B4/B5</f>
-        <v>0.52039800995024876</v>
+        <v>0.52484472049689446</v>
       </c>
       <c r="D4">
-        <v>513</v>
-      </c>
-      <c r="E4" s="4">
+        <v>502</v>
+      </c>
+      <c r="E4" s="3">
         <f>D4/D5</f>
-        <v>0.27028451001053738</v>
+        <v>0.26960257787325459</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ref="F4:F5" si="0">B4+D4</f>
-        <v>1036</v>
+        <v>1009</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -1170,35 +1170,35 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1005</v>
-      </c>
-      <c r="C5" s="4">
+        <v>966</v>
+      </c>
+      <c r="C5" s="3">
         <f>B5/F5</f>
-        <v>0.34619359283499829</v>
+        <v>0.34158415841584161</v>
       </c>
       <c r="D5">
-        <v>1898</v>
-      </c>
-      <c r="E5" s="4">
+        <v>1862</v>
+      </c>
+      <c r="E5" s="3">
         <f>D5/F5</f>
-        <v>0.65380640716500171</v>
+        <v>0.65841584158415845</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>2903</v>
+        <v>2828</v>
       </c>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -1224,22 +1224,22 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>1385</v>
-      </c>
-      <c r="C8" s="4">
+        <v>1360</v>
+      </c>
+      <c r="C8" s="3">
         <f>B8/F8</f>
-        <v>0.72971548998946256</v>
+        <v>0.73039742212674541</v>
       </c>
       <c r="D8">
-        <v>513</v>
-      </c>
-      <c r="E8" s="4">
+        <v>502</v>
+      </c>
+      <c r="E8" s="3">
         <f>D8/F8</f>
-        <v>0.27028451001053738</v>
+        <v>0.26960257787325459</v>
       </c>
       <c r="F8" s="2">
         <f>B8+D8</f>
-        <v>1898</v>
+        <v>1862</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -1248,18 +1248,18 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>18843</v>
-      </c>
-      <c r="C9" s="4">
+        <v>51379</v>
+      </c>
+      <c r="C9" s="3">
         <f>B9/F9</f>
-        <v>0.24691406557119269</v>
+        <v>0.67325785570144403</v>
       </c>
       <c r="D9">
-        <v>57471</v>
-      </c>
-      <c r="E9" s="4">
+        <v>24935</v>
+      </c>
+      <c r="E9" s="3">
         <f>D9/F9</f>
-        <v>0.75308593442880734</v>
+        <v>0.32674214429855597</v>
       </c>
       <c r="F9" s="2">
         <f>B9+D9</f>
@@ -1268,15 +1268,15 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
@@ -1302,22 +1302,22 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>482</v>
-      </c>
-      <c r="C12" s="4">
+        <v>459</v>
+      </c>
+      <c r="C12" s="3">
         <f>B12/F12</f>
-        <v>0.47960199004975124</v>
+        <v>0.4751552795031056</v>
       </c>
       <c r="D12">
-        <v>523</v>
-      </c>
-      <c r="E12" s="4">
+        <v>507</v>
+      </c>
+      <c r="E12" s="3">
         <f>D12/F12</f>
-        <v>0.52039800995024876</v>
+        <v>0.52484472049689446</v>
       </c>
       <c r="F12" s="2">
         <f>B12+D12</f>
-        <v>1005</v>
+        <v>966</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1328,14 +1328,14 @@
       <c r="B13">
         <v>51379</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f>B13/F13</f>
         <v>0.67325785570144403</v>
       </c>
       <c r="D13">
         <v>24935</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <f>D13/F13</f>
         <v>0.32674214429855597</v>
       </c>
